--- a/It201819/DEtailed Calculation/sandip adhikary.xlsx
+++ b/It201819/DEtailed Calculation/sandip adhikary.xlsx
@@ -616,8 +616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,15 +1082,15 @@
         <v>43466</v>
       </c>
       <c r="B12">
-        <v>36500</v>
+        <v>37600</v>
       </c>
       <c r="C12">
         <f t="shared" si="6"/>
-        <v>3285</v>
+        <v>3384</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>8760</v>
+        <v>9024</v>
       </c>
       <c r="E12">
         <v>3600</v>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="G12">
         <f t="shared" si="2"/>
-        <v>52469</v>
+        <v>53932</v>
       </c>
       <c r="H12">
         <v>450</v>
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J12">
         <f t="shared" si="3"/>
-        <v>3979</v>
+        <v>4098</v>
       </c>
       <c r="K12">
         <v>200</v>
@@ -1242,15 +1242,15 @@
       </c>
       <c r="B22" s="2">
         <f t="shared" ref="B22:F22" si="10">SUM(B2:B21)</f>
-        <v>439100</v>
+        <v>440200</v>
       </c>
       <c r="C22" s="2">
         <f t="shared" si="10"/>
-        <v>34409</v>
+        <v>34508</v>
       </c>
       <c r="D22" s="2">
         <f t="shared" si="10"/>
-        <v>105384</v>
+        <v>105648</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" si="10"/>
@@ -1262,7 +1262,7 @@
       </c>
       <c r="G22" s="2">
         <f>SUM(G2:G21)</f>
-        <v>636395</v>
+        <v>637858</v>
       </c>
       <c r="H22" s="2">
         <f t="shared" ref="H22:M22" si="11">SUM(H2:H19)</f>
@@ -1274,7 +1274,7 @@
       </c>
       <c r="J22" s="2">
         <f t="shared" si="11"/>
-        <v>47721</v>
+        <v>47840</v>
       </c>
       <c r="K22" s="2">
         <f t="shared" si="11"/>
@@ -1303,11 +1303,11 @@
       </c>
       <c r="G25">
         <f>G22-M22</f>
-        <v>636395</v>
+        <v>637858</v>
       </c>
       <c r="H25" s="22">
         <f>G25</f>
-        <v>636395</v>
+        <v>637858</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
@@ -1364,11 +1364,11 @@
       </c>
       <c r="G31" s="2">
         <f>SUM(G25:G28)</f>
-        <v>638795</v>
+        <v>640258</v>
       </c>
       <c r="H31" s="20">
         <f>H25-SUM(H26:H30)</f>
-        <v>593995</v>
+        <v>595458</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
@@ -1474,11 +1474,11 @@
       </c>
       <c r="G45" s="2">
         <f>J22</f>
-        <v>47721</v>
+        <v>47840</v>
       </c>
       <c r="H45" s="20">
         <f>IF(G45&gt;50000,50000,G45)</f>
-        <v>47721</v>
+        <v>47840</v>
       </c>
     </row>
     <row r="46" spans="6:8" x14ac:dyDescent="0.25">
@@ -1544,7 +1544,7 @@
       <c r="G53" s="14"/>
       <c r="H53" s="21">
         <f>SUM(H43,H45,H49,H50,H51,H52)</f>
-        <v>113406</v>
+        <v>113525</v>
       </c>
     </row>
     <row r="54" spans="6:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
@@ -1553,7 +1553,7 @@
       </c>
       <c r="H54">
         <f>H31-H53</f>
-        <v>480589</v>
+        <v>481933</v>
       </c>
     </row>
     <row r="55" spans="6:8" x14ac:dyDescent="0.25">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="G56">
         <f>IF((H54-250000)*0.05&gt;12500,12500,(H54-250000)*0.05)</f>
-        <v>11529.45</v>
+        <v>11596.650000000001</v>
       </c>
     </row>
     <row r="57" spans="6:8" x14ac:dyDescent="0.25">
@@ -1587,18 +1587,18 @@
       <c r="F58" s="12"/>
       <c r="G58">
         <f>SUM(G55:G56)-G57</f>
-        <v>11529.45</v>
+        <v>11596.650000000001</v>
       </c>
     </row>
     <row r="59" spans="6:8" x14ac:dyDescent="0.25">
       <c r="F59" s="1"/>
       <c r="G59">
         <f>IF(G58&lt;0,0,ROUND(G58,1))</f>
-        <v>11529.5</v>
+        <v>11596.7</v>
       </c>
       <c r="H59" s="16">
         <f>IF(ROUND(G59,-1)&lt;G59,ROUND(G59,-1)+10,ROUND(G59,-1))</f>
-        <v>11530</v>
+        <v>11600</v>
       </c>
     </row>
     <row r="60" spans="6:8" x14ac:dyDescent="0.25">
@@ -1613,7 +1613,7 @@
     <row r="61" spans="6:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H61" s="2">
         <f>H59-H60</f>
-        <v>5530</v>
+        <v>5600</v>
       </c>
     </row>
   </sheetData>
